--- a/equation.xlsx
+++ b/equation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aheilman\Documents\GitHub\PingPong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\PingPong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F61323E-C8A2-470B-AEFC-1601DC6C37CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9E9866-1FFE-4FF4-91EE-CA0C5ED962D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C59FCB98-DF33-4463-A889-0D008053DA41}"/>
+    <workbookView xWindow="307" yWindow="367" windowWidth="8246" windowHeight="9380" xr2:uid="{C59FCB98-DF33-4463-A889-0D008053DA41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,12 +405,12 @@
   <dimension ref="A9:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -424,44 +424,44 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="C10">
         <f>1/(1+10^((B11-B10)/400))</f>
-        <v>0.98252790850516658</v>
+        <v>0.35993500019711488</v>
       </c>
       <c r="D10">
         <f>B10+32*(1-C10)</f>
-        <v>2000.5591069278346</v>
+        <v>1520.4820799936924</v>
       </c>
       <c r="E10">
         <f>B10+32*(0-C10)</f>
-        <v>1968.5591069278346</v>
+        <v>1488.4820799936924</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>1</v>
       </c>
       <c r="B11">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="C11">
         <f>1/(1+10^((B10-B11)/400))</f>
-        <v>1.747209149483344E-2</v>
+        <v>0.64006499980288512</v>
       </c>
       <c r="D11">
         <f>B11+32*(1-C11)</f>
-        <v>1331.4408930721654</v>
+        <v>1611.5179200063076</v>
       </c>
       <c r="E11">
         <f>B11+32*(0-C11)</f>
-        <v>1299.4408930721654</v>
+        <v>1579.5179200063076</v>
       </c>
     </row>
   </sheetData>
